--- a/src/main/resources/data/ApiTestData.xlsx
+++ b/src/main/resources/data/ApiTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="887" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,18 @@
     <sheet name="删除意图类别" sheetId="4" r:id="rId4"/>
     <sheet name="创建场景类别" sheetId="5" r:id="rId5"/>
     <sheet name="删除场景类别" sheetId="7" r:id="rId6"/>
-    <sheet name="新建场景（异常数据）" sheetId="6" r:id="rId7"/>
+    <sheet name="新建场景（正常数据）" sheetId="8" r:id="rId7"/>
+    <sheet name="新建场景（异常数据）" sheetId="6" r:id="rId8"/>
+    <sheet name="新建单元" sheetId="9" r:id="rId9"/>
+    <sheet name="新增话术" sheetId="10" r:id="rId10"/>
+    <sheet name="保存单元" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>数据名称</t>
   </si>
@@ -31,7 +35,10 @@
     <t>密码</t>
   </si>
   <si>
-    <t>断言</t>
+    <t>断言res</t>
+  </si>
+  <si>
+    <t>断言msg</t>
   </si>
   <si>
     <t>正常数据</t>
@@ -55,12 +62,6 @@
     <t>意图类别名称</t>
   </si>
   <si>
-    <t>断言res</t>
-  </si>
-  <si>
-    <t>断言msg</t>
-  </si>
-  <si>
     <t>正常的数据</t>
   </si>
   <si>
@@ -134,6 +135,95 @@
   </si>
   <si>
     <t>接口参数</t>
+  </si>
+  <si>
+    <t>正常数据-云端表单</t>
+  </si>
+  <si>
+    <t>{"approach":1,
+"automaticFrequency":1,
+"automaticPostBack":true,
+"automaticTime":5,
+"dynamic":false,
+"enableSms":false,
+"examine":"true",
+"formId":"8a09c4d91a7d4fa68f59d53f35e8642f",
+"formRepeatId":"56932a8f36424aa78d6a832e2052f5d0",
+"formVersion":"",
+"formVersionId":"V1.0",
+"formVersionNum":"V1.0",
+"hospCode":"",
+"hospName":"",
+"pushContentName":"基础库表单xfsun接口专用（勿动勿用）",
+"pushContentType":"1",
+"sceneCategory":"5e96a8cf5b01040001689085",
+"sceneName":"场景名称IDEA（使用云端表单）",
+"sceneTypeList":"1",
+"speed":5,
+"voiceType":"baidu_1",
+"volume":15
+}</t>
+  </si>
+  <si>
+    <t>正常数据-院内表单</t>
+  </si>
+  <si>
+    <t>{"approach":0,
+"automaticFrequency":1,
+"automaticPostBack":false,
+"automaticTime":5,
+"dynamic":false,
+"enableSms":false,
+"examine":"true",
+"formId":"5c5650b44555438e9bf261356c8353f2",
+"formRepeatId":"e89ea16d1cdc4fcbb14c655977ec2870",
+"formVersion":"",
+"formVersionNum":"V1.0",
+"hospCode":"joinhealth166",
+"hospName":"测试环境医院",
+"pushContentName":"测试环境院内表单xfsun接口专用（勿动勿用）",
+"pushContentType":"1",
+"sceneCategory":"5e96a8cf5b01040001689085",
+"sceneName":"场景名称IDEA（使用院内表单）",
+"sceneTypeList":"1",
+"speed":5,
+"voiceType":"baidu_1",
+"volume":15,
+"templateSceneId":"",
+"templateSceneVersionId":"",
+"autoFill":false,
+"wechatFillNum":null
+}</t>
+  </si>
+  <si>
+    <t>引用场景模板</t>
+  </si>
+  <si>
+    <t>{"approach":1,
+"automaticFrequency":1,
+"automaticPostBack":true,
+"automaticTime":5,
+"dynamic":false,
+"enableSms":false,
+"examine":"true",
+"formId":"e08e7542c6b64492915e603518b540b2",
+"formRepeatId":"53bf02f13123433e81aa6d780f602d07",
+"formVersion":"",
+"formVersionNum":"V1.1",
+"hospCode":"",
+"hospName":"",
+"pushContentName":"静态的二维表单",
+"pushContentType":"1",
+"sceneCategory":"5e96a8cf5b01040001689085",
+"sceneName":"引用模板",
+"sceneTypeList":"1",
+"speed":5,
+"voiceType":"baidu_1",
+"volume":15,
+"templateSceneId":"5cf71b658c79ac274afe3215",
+"templateSceneVersionId":"5cf71b658c79ac274afe3216",
+"autoFill":false
+}</t>
   </si>
   <si>
     <t>场景名称为空</t>
@@ -194,6 +284,299 @@
   </si>
   <si>
     <t>该表单已配置场景</t>
+  </si>
+  <si>
+    <t>（第一单元）不关联题目</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 0,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "现在方便做个回访调查吗",
+ "title": {
+  "titleId": null,
+  "optionId": null,
+  "questionTypeForm": null
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>（第二单元）关联单选题</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 1,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "就诊后身体怎么样",
+ "title": {
+  "titleId": "f5ecc50d22cd40d58c2e3fd9834eb167",
+  "optionId": null,
+  "questionTypeForm": 2
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>（第三单元）关联单选题</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 2,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "医生态度怎么样",
+ "title": {
+  "titleId": "d0fa1de9e05d4d39a7f0ead4f2bc9bf1",
+  "optionId": null,
+  "questionTypeForm": 2
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>（第四单元）关联多选题</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 3,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "早餐调查",
+ "title": {
+  "titleId": "11a6b660ba2f4423a9e6e9242aa9a067",
+  "optionId": null,
+  "questionTypeForm": 3
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>（第五单元）关联矩阵题</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 4,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "满意度调查",
+ "title": {
+  "titleId": "7dc89810046b4f77a68a7a1249a2c600",
+  "optionId":"e41d96d887014afcb08f35daa91cdf94",
+  "questionTypeForm": 4
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>（第六单元）关联填空题</t>
+  </si>
+  <si>
+    <t>{
+ "askUnitNum": 5,
+ "sceneVersionId":"5ece18d33252c00001e934ea",
+ "relationId": "5ece18d33252c00001e934eb",
+ "unitName": "医院意见",
+ "title": {
+  "titleId": "258ac7891a19403591d97b8e343024f3",
+  "optionId":"e41d96d887014afcb08f35daa91cdf94",
+  "questionTypeForm": 1
+ },
+ "id": "",
+ "commType": 1,
+ "modelid": "",
+ "modelname": ""
+}</t>
+  </si>
+  <si>
+    <t>新增话术（只有文字）</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "现在方便做个回访调查吗",
+ "conversationDesc": "话术描述",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "现在方便做个回访调查吗"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>新增话术（文字+患者姓名）</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "就诊后身体怎么样呢",
+ "conversationDesc": "就诊后身体怎么样呢",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "就诊后身体怎么样呢",
+  "column":"patientName"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>新增话术（文字+患者姓名+录音）</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "医生态度评价",
+ "conversationDesc": "医生态度评价",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "医生态度评价"
+ }, {
+  "column": "patientName"
+ }, {
+  "voice": "5ed0a5ec3252c000014d5dd3",
+  "fileName": "REC20190119135015.mp3",
+  "voiceAddress": "ai-master/record/2020-05-29/resample_5ed0a5ec3252c000014d5dd3.mp3"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>早餐调查</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "早餐调查",
+ "conversationDesc": "早餐调查",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "早餐调查"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>满意度调查</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "满意度调查",
+ "conversationDesc": "满意度调查",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "满意度调查"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>对我院有什么意见</t>
+  </si>
+  <si>
+    <t>{
+ "id": null,
+ "conversationName": "对我院有什么意见",
+ "conversationDesc": "对我院有什么意见",
+ "conversationType": 1,
+ "conversationJson": [{
+  "text": "对我院有什么意见"
+ }],
+ "breakFlag": 1,
+ "sceneTypeList": ["1"],
+ "responseTime": "0.75",
+ "priority": 0,
+ "commType": 1
+}</t>
+  </si>
+  <si>
+    <t>有意图无关联题目选项</t>
+  </si>
+  <si>
+    <t>{ 
+ "breakDialogFlag": 0,
+ "commType": 1,
+ "conversationId": "5ed0cd733252c000014d60d5",
+ "conversationName": "话术名称",
+ "conversionBreakFlag": 1,
+ "createTime": "2020-05-29 11:41:29",
+ "editor": "xfsun",
+ "id": "5ed084693252c000014d57e0",
+ "intentionDto": null,
+ "intentions": [{
+  "repeatLimit": 1,
+  "intentionPriority": 2,
+  "aboveIntentionId": "",
+  "aboveIntentionName": "",
+  "titleJson": "",
+  "quoteTitle": "",
+  "intentionName": "有时间",
+  "intentionContent": "有时间",
+  "intentionBlackContent": "",
+  "titleBindFlag": false,
+  "terminateIntentionFlag": true,
+  "nextUnitFlag": true,
+  "nextUnitId": "5ed084693252c000014d57e2"
+ }, {
+  "repeatLimit": 1,
+  "intentionPriority": 2,
+  "aboveIntentionId": "",
+  "aboveIntentionName": "",
+  "titleJson": "",
+  "quoteTitle": "",
+  "intentionName": "没时间",
+  "terminateIntentionFlag": true,
+  "nextUnitFlag": true,
+  "titleBindFlag": false,
+  "nextUnitId": "5ed084693252c000014d57e2",
+  "intentionContent": "没时间",
+  "intentionBlackContent": ""
+ }],
+ "isDelete": false,
+ "normalConversationWxId": "5ed0cd733252c000014d60d5",
+ "sceneId": "",
+ "sceneVersionId": "5ecf8cc43252c00001e1f894",
+ "titleBindFlag": false,
+ "unitName": "现在方便做个回访调查吗",
+ "updateTime": "2020-05-29 11:41:29"
+}</t>
   </si>
 </sst>
 </file>
@@ -838,12 +1221,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1211,80 +1597,265 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="22.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="30.775" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="30.775" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
         <v>123</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>123</v>
+      </c>
+      <c r="D3" s="8">
+        <v>10001</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>123</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>123456</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
+      <c r="D4" s="8">
+        <v>10002</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="48.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="218" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="222" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="283.5" spans="1:4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="189" spans="1:4">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="189" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="189" spans="1:4">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="67.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="409" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1307,45 +1878,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5">
+        <v>130001</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>130001</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1374,54 +1945,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>130001</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4">
-        <v>130001</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1448,45 +2019,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>130001</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>130001</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1516,41 +2087,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
       <c r="C3">
         <v>130003</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1580,41 +2151,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>130003</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1626,10 +2197,88 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="363" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="393" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="337.5" spans="1:4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1644,41 +2293,162 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="297" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>130001</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="297" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C3">
         <v>130001</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="235" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="202.5" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="202.5" spans="1:4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="202.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="202.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="202.5" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
